--- a/ruleLib/ruleLib0825.xlsx
+++ b/ruleLib/ruleLib0825.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="331">
   <si>
     <t>分类</t>
   </si>
@@ -361,18 +361,6 @@
     <t>其他策略</t>
   </si>
   <si>
-    <t>倒L型，后两天有涨停</t>
-  </si>
-  <si>
-    <t>最好穿线</t>
-  </si>
-  <si>
-    <t>龙头股连续涨停后首次调整买入</t>
-  </si>
-  <si>
-    <t>3个涨停后</t>
-  </si>
-  <si>
     <t>大形态策略</t>
   </si>
   <si>
@@ -385,9 +373,6 @@
     <t>rule80</t>
   </si>
   <si>
-    <t>沃华 七喜 海岛 浙江永强</t>
-  </si>
-  <si>
     <t>30日线5度斜率上升20天</t>
   </si>
   <si>
@@ -410,12 +395,6 @@
   </si>
   <si>
     <t>中海集运</t>
-  </si>
-  <si>
-    <t>5日线走平</t>
-  </si>
-  <si>
-    <t>空中加油</t>
   </si>
   <si>
     <t>rule81</t>
@@ -1074,6 +1053,66 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>最好</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>macd加油</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>次好</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>macd刚好金叉两天内</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑调整策略：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>再看前面的洗盘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天内有macd金叉，然后有8%大涨（kdj6天内）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj非高位（金叉6天内）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外整理特殊策略，输入位重要邮件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（考虑用宽潮软件）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情稳定，可最高做多</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>若行情危险，少量做反弹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊市以做反弹为主，牛市以追高为主</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件调整</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>rule62</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1082,71 +1121,103 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>5日线平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10日线平</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>macd加油</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>次好</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>macd刚好金叉两天内</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑调整策略：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>再看前面的洗盘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3天内有macd金叉，然后有8%大涨（kdj6天内）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>kdj非高位（金叉6天内）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外整理特殊策略，输入位重要邮件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>（考虑用宽潮软件）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行情稳定，可最高做多</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>若行情危险，少量做反弹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊市以做反弹为主，牛市以追高为主</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件调整</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨停</t>
+    <t>rule64</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒康医疗</t>
+  </si>
+  <si>
+    <t>st韶钢</t>
+  </si>
+  <si>
+    <t>当日振幅&lt;3%，价格偏离&lt;1.5%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏离&lt;1.5%</t>
+  </si>
+  <si>
+    <t>偏离&lt;1.5%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule65</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>K振幅&lt;2%，均偏离&lt;0.5%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（涨停后的空中加油）（还要看makd等）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天K线平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天5日线平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天10日线平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天K线平5日线平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>反平台整理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沃华 七喜 海岛 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江永强</t>
+  </si>
+  <si>
+    <t>rule65</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10天内U型反转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD金叉加油KDJ金叉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAKD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停出坑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红三兵 + 10日前有&gt;5线价位（暂不考虑斜率）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑5线，坑内要有2红</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏发展（红三兵穿5线），安利股份（错）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊发展，安利股份（错）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule66</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,6 +1430,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1392,7 +1480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1538,6 +1626,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1841,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2038,7 +2131,7 @@
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="68" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2336,41 +2429,41 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2421,29 +2514,29 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F4" s="27">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2453,13 +2546,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="F8" s="65" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
@@ -2470,14 +2563,14 @@
         <v>79</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="65" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
@@ -2495,23 +2588,23 @@
         <v>80</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="F12" s="66" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="66"/>
@@ -2546,7 +2639,7 @@
         <v>82</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
@@ -2563,7 +2656,7 @@
         <v>84</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
@@ -2573,7 +2666,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="F16" s="66" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2601,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2612,7 +2705,7 @@
     <col min="3" max="3" width="6.75" style="59" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="33" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="33" customWidth="1"/>
-    <col min="6" max="6" width="33" style="38" customWidth="1"/>
+    <col min="6" max="6" width="38.125" style="38" customWidth="1"/>
     <col min="7" max="7" width="43.375" style="37" customWidth="1"/>
     <col min="8" max="8" width="25.625" style="37" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="37" customWidth="1"/>
@@ -2627,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>3</v>
@@ -2667,7 +2760,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>22</v>
@@ -2687,13 +2780,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>49</v>
@@ -2713,13 +2806,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G6" s="41"/>
     </row>
@@ -2734,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>38</v>
@@ -2783,13 +2876,13 @@
         <v>90</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1">
@@ -2852,13 +2945,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2876,7 +2969,7 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>66</v>
@@ -2896,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>103</v>
@@ -2920,16 +3013,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2937,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C16" s="60">
         <v>2</v>
@@ -2949,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2963,7 +3056,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C17" s="60">
         <v>3</v>
@@ -2975,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2989,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C18" s="60">
         <v>3</v>
@@ -3001,16 +3094,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3018,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C19" s="60">
         <v>2</v>
@@ -3027,16 +3120,16 @@
         <v>100</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3044,7 +3137,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C20" s="60">
         <v>2</v>
@@ -3056,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3067,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C21" s="60">
         <v>2</v>
@@ -3076,13 +3169,13 @@
         <v>100</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3090,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C22" s="60">
         <v>1</v>
@@ -3099,13 +3192,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3126,21 +3219,21 @@
         <v>14</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="40" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="47" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3151,7 +3244,7 @@
       <c r="E26" s="40"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3174,103 +3267,115 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="33" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="60"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="48" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C30" s="60">
         <v>6</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C31" s="60">
         <v>7</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="E31" s="33">
+        <v>1</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48">
       <c r="A32" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C32" s="58">
         <v>16</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="E32" s="33">
+        <v>1</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C33" s="58">
         <v>21</v>
       </c>
       <c r="D33" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>267</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="26"/>
@@ -3280,14 +3385,14 @@
       <c r="B34" s="35"/>
       <c r="C34" s="58"/>
       <c r="D34" s="43" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="45" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="26"/>
@@ -3302,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C36" s="61"/>
       <c r="D36" s="51"/>
@@ -3314,7 +3419,7 @@
         <v>110</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3327,7 +3432,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="40" t="s">
@@ -3345,7 +3450,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>100</v>
@@ -3356,256 +3461,351 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="67">
+        <v>7</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>297</v>
+        <v>314</v>
+      </c>
+      <c r="E41" s="43">
+        <v>1</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="67">
+        <v>7</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>298</v>
+        <v>315</v>
+      </c>
+      <c r="E42" s="43">
+        <v>1</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="67">
+        <v>7</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="B44" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="67">
+        <v>4</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" s="43">
+        <v>1</v>
+      </c>
       <c r="F44" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>116</v>
+        <v>312</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="G45" s="38"/>
+      <c r="A45" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="35">
+        <v>1</v>
+      </c>
+      <c r="F45" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="33" t="s">
-        <v>117</v>
+      <c r="B46" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>272</v>
-      </c>
+      <c r="B47" s="40"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
+      <c r="A49" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="58">
-        <v>36</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="33"/>
-      <c r="F51" s="38" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="58">
+        <v>36</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="33">
+        <v>1</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="58"/>
+      <c r="E53" s="33">
+        <v>1</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="F54" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="D55" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="53"/>
+      <c r="F55" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="D56" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="D52" s="53" t="s">
+      <c r="E56" s="53"/>
+      <c r="F56" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54" t="s">
+      <c r="G56" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="D53" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="D54" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" spans="1:8" s="56" customFormat="1">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:8" s="56" customFormat="1">
-      <c r="A56" s="55"/>
-      <c r="B56" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="58">
-        <v>32</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="56" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="56" customFormat="1">
       <c r="A57" s="55"/>
       <c r="B57" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>291</v>
+        <v>125</v>
+      </c>
+      <c r="C57" s="58">
+        <v>32</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="25"/>
+        <v>270</v>
+      </c>
+      <c r="E57" s="25">
+        <v>1</v>
+      </c>
       <c r="F57" s="56" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="G57" s="14"/>
+      <c r="H57" s="56" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="58" spans="1:8" s="56" customFormat="1">
       <c r="A58" s="55"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="B58" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" s="25">
+        <v>1</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>274</v>
+      </c>
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="G59" s="38"/>
+      <c r="D59" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="D60" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="33"/>
       <c r="D63" s="31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="33" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="33">
+        <v>1</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="33" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="56" customFormat="1">
@@ -3613,50 +3813,50 @@
       <c r="B68" s="55"/>
       <c r="C68" s="61"/>
       <c r="D68" s="25" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="56" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="D70" s="33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="33" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E74" s="40"/>
       <c r="F74" s="41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3884,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36">
@@ -3692,12 +3892,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36">
       <c r="B3" s="34" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3731,28 +3931,28 @@
   <sheetData>
     <row r="2" spans="1:2" ht="27">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68.25">
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27">
       <c r="B10" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3777,123 +3977,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="23" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="23" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="23" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib0825.xlsx
+++ b/ruleLib/ruleLib0825.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7110" tabRatio="373" activeTab="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="342">
   <si>
     <t>分类</t>
   </si>
@@ -358,18 +358,12 @@
     <t>形态策略</t>
   </si>
   <si>
-    <t>其他策略</t>
-  </si>
-  <si>
     <t>大形态策略</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>20天内3个阴线，不超过2涨停，有跳空低开,正量多</t>
-  </si>
-  <si>
     <t>rule80</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
   </si>
   <si>
     <t>信息策略</t>
-  </si>
-  <si>
-    <t>rule50</t>
   </si>
   <si>
     <t>高送转除权后，涨停，开始填权行情</t>
@@ -867,10 +858,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>MACD和量不能明显反转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1181,15 +1168,104 @@
     <t>浙江永强</t>
   </si>
   <si>
-    <t>rule65</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>10天内U型反转</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>MACD金叉加油KDJ金叉</t>
+    <t>红三兵 + 10日前有&gt;5线价位（暂不考虑斜率）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊发展，安利股份（错）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7连阳穿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5线</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金坑最好！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续7连阴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule70</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓拉吸筹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20天内阴线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，涨停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;=3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（有跳空低开,正量多）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、acc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、rules</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>把上证和板块做进去</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（最好涨停突破）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1197,35 +1273,55 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>MACD死叉后5天左右金叉，KDJ零J值大金叉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD空加，KDJ零J值大金叉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD和量不能明显反转（看筹码分布）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜牛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文华</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑5线，坑内要有2红（看MAKD）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏发展（红三兵穿5线），安利股份（错）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>涨停出坑</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>红三兵 + 10日前有&gt;5线价位（暂不考虑斜率）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不考虑5线，坑内要有2红</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏发展（红三兵穿5线），安利股份（错）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>廊坊发展，安利股份（错）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule66</t>
+    <t>rule90</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,52 +1381,42 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1338,111 +1424,97 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="22"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="22"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="22"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1480,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1617,9 +1689,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="58" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1630,23 +1699,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1720,7 +1793,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1755,7 +1827,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1931,14 +2002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="3" width="9" style="3"/>
@@ -2131,7 +2202,7 @@
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="67" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2429,41 +2500,41 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2474,11 +2545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2503,7 +2574,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2514,29 +2585,29 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" s="27">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2545,88 +2616,88 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="F8" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+      <c r="F8" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="65" t="s">
+      <c r="F9" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="F12" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="F12" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -2638,38 +2709,38 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="F14" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="F15" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="F16" s="66" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F16" s="65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="15" t="s">
         <v>85</v>
       </c>
@@ -2681,6 +2752,35 @@
       </c>
       <c r="D18" s="15" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="F22" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="F24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="F25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="F26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2691,14 +2791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="28" customWidth="1"/>
@@ -2720,13 +2820,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>3</v>
@@ -2760,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>22</v>
@@ -2780,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>49</v>
@@ -2806,13 +2906,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G6" s="41"/>
     </row>
@@ -2827,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>38</v>
@@ -2876,13 +2976,13 @@
         <v>90</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1">
@@ -2945,13 +3045,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2969,7 +3069,7 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>66</v>
@@ -2989,7 +3089,7 @@
         <v>90</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>103</v>
@@ -3013,16 +3113,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3030,7 +3130,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C16" s="60">
         <v>2</v>
@@ -3042,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3056,7 +3156,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" s="60">
         <v>3</v>
@@ -3068,13 +3168,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3082,7 +3182,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" s="60">
         <v>3</v>
@@ -3094,16 +3194,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3111,7 +3211,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="60">
         <v>2</v>
@@ -3120,16 +3220,16 @@
         <v>100</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3137,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C20" s="60">
         <v>2</v>
@@ -3149,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3160,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C21" s="60">
         <v>2</v>
@@ -3169,13 +3269,13 @@
         <v>100</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3183,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="60">
         <v>1</v>
@@ -3192,13 +3292,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3219,21 +3319,21 @@
         <v>14</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3244,7 +3344,7 @@
       <c r="E26" s="40"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3267,115 +3367,115 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="60"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="48" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="43" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C30" s="60">
         <v>6</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E30" s="33">
         <v>1</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="43" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C31" s="60">
         <v>7</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E31" s="33">
         <v>1</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48">
       <c r="A32" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C32" s="58">
         <v>16</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E32" s="33">
         <v>1</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C33" s="58">
         <v>21</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E33" s="33">
         <v>1</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="26"/>
@@ -3385,478 +3485,508 @@
       <c r="B34" s="35"/>
       <c r="C34" s="58"/>
       <c r="D34" s="43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="45" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="42" customFormat="1">
-      <c r="A36" s="51" t="s">
+    <row r="37" spans="1:9" s="42" customFormat="1">
+      <c r="A37" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52" t="s">
+      <c r="B37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G37" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="52" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="33" t="s">
+      <c r="H37" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="40" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="B40" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="70">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="33" t="s">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="67">
+        <v>281</v>
+      </c>
+      <c r="C41" s="71">
         <v>7</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="43">
+      <c r="D41" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E41" s="33">
         <v>1</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="67">
+        <v>299</v>
+      </c>
+      <c r="C42" s="66">
         <v>7</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E42" s="43">
         <v>1</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>310</v>
+        <v>304</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="67">
+        <v>300</v>
+      </c>
+      <c r="C43" s="66">
         <v>7</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E43" s="43">
         <v>1</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="33" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="67">
-        <v>4</v>
+        <v>301</v>
+      </c>
+      <c r="C44" s="66">
+        <v>7</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E44" s="43">
         <v>1</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="E45" s="35">
+      <c r="B45" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="66">
+        <v>4</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="43">
         <v>1</v>
       </c>
-      <c r="F45" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>328</v>
+      <c r="F45" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="B46" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>329</v>
+      <c r="A46" s="33"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="40"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="38"/>
+      <c r="D47" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="33" t="s">
-        <v>113</v>
-      </c>
+      <c r="B48" s="40"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="71">
+        <v>21</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="33">
+        <v>1</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="58">
+      <c r="C53" s="58">
         <v>36</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E52" s="33">
-        <v>1</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="58"/>
+      <c r="D53" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="E53" s="33">
         <v>1</v>
       </c>
-      <c r="F53" s="36" t="s">
-        <v>318</v>
+      <c r="F53" s="38" t="s">
+        <v>262</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="33"/>
-      <c r="F54" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>268</v>
+      <c r="B54" s="35"/>
+      <c r="C54" s="58"/>
+      <c r="E54" s="33">
+        <v>1</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="33"/>
-      <c r="D55" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="53"/>
-      <c r="F55" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>121</v>
+      <c r="F55" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
       <c r="D56" s="53" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="56" customFormat="1">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="58">
-        <v>32</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="25">
-        <v>1</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="56" t="s">
-        <v>271</v>
+        <v>117</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="D57" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="56" customFormat="1">
       <c r="A58" s="55"/>
       <c r="B58" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>284</v>
+        <v>123</v>
+      </c>
+      <c r="C58" s="58">
+        <v>32</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E58" s="25">
         <v>1</v>
       </c>
       <c r="F58" s="56" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="56" customFormat="1">
+      <c r="A59" s="55"/>
+      <c r="B59" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>280</v>
+      </c>
       <c r="D59" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="25"/>
+        <v>269</v>
+      </c>
+      <c r="E59" s="25">
+        <v>1</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="D60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>129</v>
-      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="31"/>
+        <v>125</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
+      <c r="A63" s="33" t="s">
+        <v>127</v>
+      </c>
       <c r="D63" s="31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>134</v>
-      </c>
+      <c r="A64" s="33"/>
+      <c r="D64" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="33" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="E65" s="33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66" s="58">
         <v>1</v>
       </c>
-      <c r="F65" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="33" t="s">
-        <v>136</v>
+      <c r="F66" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="G66" s="69" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="56" customFormat="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="56" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="56" customFormat="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="25" t="s">
+    <row r="71" spans="1:8">
+      <c r="D71" s="33" t="s">
         <v>138</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="D70" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="39" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="39" t="s">
+      <c r="C75" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" s="40"/>
-      <c r="F74" s="41" t="s">
-        <v>281</v>
+      <c r="D75" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="40"/>
+      <c r="F75" s="41" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3867,14 +3997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="13" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.875" style="29" customWidth="1"/>
@@ -3884,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36">
@@ -3892,12 +4022,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36">
       <c r="B3" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3917,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,28 +4061,28 @@
   <sheetData>
     <row r="2" spans="1:2" ht="27">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68.25">
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27">
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3962,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3977,123 +4107,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
